--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3966131.669941151</v>
+        <v>-3966778.642482335</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>24.68690330538631</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>24.68690330538778</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417441</v>
+        <v>2.565094327417442</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748828</v>
+        <v>32.99210285748827</v>
       </c>
       <c r="V11" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="W11" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362595</v>
+        <v>0.4251038644362599</v>
       </c>
       <c r="T13" t="n">
         <v>9.028675106938165</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>24.68690330538615</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>60.24410049029195</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417484</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.99210285748831</v>
       </c>
       <c r="V14" t="n">
         <v>68.39702598806991</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087881</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964397</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998889</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362595</v>
+        <v>0.4251038644362883</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938165</v>
+        <v>9.028675106938193</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882466</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692797</v>
+        <v>34.486327106928</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740438</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298101</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.298649907757067</v>
       </c>
     </row>
     <row r="17">
@@ -2093,7 +2093,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G29" t="n">
-        <v>193.3941876283403</v>
+        <v>193.3941876283402</v>
       </c>
       <c r="H29" t="n">
         <v>112.566723118609</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007082</v>
       </c>
       <c r="V29" t="n">
         <v>107.5181032350907</v>
       </c>
       <c r="W29" t="n">
-        <v>129.514998713126</v>
+        <v>129.5149987131259</v>
       </c>
       <c r="X29" t="n">
-        <v>149.8464808437408</v>
+        <v>149.8464808437407</v>
       </c>
       <c r="Y29" t="n">
         <v>165.6719534638072</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670398</v>
       </c>
       <c r="V30" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222649</v>
       </c>
       <c r="W30" t="n">
-        <v>28.97422846257143</v>
+        <v>28.9742284625714</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520711</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140717</v>
       </c>
       <c r="V31" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951052</v>
       </c>
       <c r="W31" t="n">
-        <v>65.07745859998693</v>
+        <v>65.0774585999869</v>
       </c>
       <c r="X31" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880617</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C35" t="n">
         <v>123.8503791869722</v>
@@ -3272,16 +3272,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E35" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F35" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G35" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W35" t="n">
         <v>107.3954005085842</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C38" t="n">
         <v>123.8503791869722</v>
@@ -3509,16 +3509,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E38" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F38" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W38" t="n">
         <v>107.3954005085842</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C41" t="n">
         <v>123.8503791869722</v>
@@ -3746,16 +3746,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E41" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F41" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G41" t="n">
         <v>171.2745894237985</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529048</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W41" t="n">
         <v>107.3954005085842</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C44" t="n">
         <v>123.8503791869722</v>
@@ -3983,16 +3983,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E44" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F44" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G44" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H44" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V44" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W44" t="n">
         <v>107.3954005085842</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V46" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W46" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.40802804408224</v>
+        <v>30.40802804408216</v>
       </c>
       <c r="C11" t="n">
-        <v>5.47176207904559</v>
+        <v>30.40802804408216</v>
       </c>
       <c r="D11" t="n">
-        <v>5.47176207904559</v>
+        <v>30.40802804408216</v>
       </c>
       <c r="E11" t="n">
-        <v>5.47176207904559</v>
+        <v>30.40802804408216</v>
       </c>
       <c r="F11" t="n">
-        <v>5.47176207904559</v>
+        <v>30.40802804408216</v>
       </c>
       <c r="G11" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H11" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I11" t="n">
         <v>35.56706215439188</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439188</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="K11" t="n">
-        <v>95.48833333466581</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="L11" t="n">
-        <v>153.774204686029</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="M11" t="n">
-        <v>153.774204686029</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="N11" t="n">
-        <v>183.3664277066107</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="O11" t="n">
-        <v>251.0794834347999</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="P11" t="n">
-        <v>251.0794834347999</v>
+        <v>159.7650473458278</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.0794834347999</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="R11" t="n">
-        <v>251.0794834347999</v>
+        <v>251.0794834348001</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T11" t="n">
-        <v>270.9970995811507</v>
+        <v>270.9970995811509</v>
       </c>
       <c r="U11" t="n">
-        <v>237.6717431594454</v>
+        <v>237.6717431594456</v>
       </c>
       <c r="V11" t="n">
-        <v>168.5838381209909</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="W11" t="n">
-        <v>99.49593308253667</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="X11" t="n">
-        <v>99.49593308253667</v>
+        <v>30.40802804408216</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.49593308253667</v>
+        <v>30.40802804408216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N12" t="n">
         <v>57.17833035452099</v>
@@ -5157,13 +5157,13 @@
         <v>37.32966388711515</v>
       </c>
       <c r="W12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C13" t="n">
-        <v>5.47176207904559</v>
+        <v>56.07409839756635</v>
       </c>
       <c r="D13" t="n">
-        <v>5.47176207904559</v>
+        <v>56.07409839756635</v>
       </c>
       <c r="E13" t="n">
-        <v>5.47176207904559</v>
+        <v>56.07409839756635</v>
       </c>
       <c r="F13" t="n">
-        <v>5.47176207904559</v>
+        <v>56.07409839756635</v>
       </c>
       <c r="G13" t="n">
-        <v>55.72441237159521</v>
+        <v>56.07409839756635</v>
       </c>
       <c r="H13" t="n">
-        <v>55.72441237159521</v>
+        <v>114.0806870242473</v>
       </c>
       <c r="I13" t="n">
-        <v>55.72441237159521</v>
+        <v>114.0806870242473</v>
       </c>
       <c r="J13" t="n">
-        <v>55.72441237159521</v>
+        <v>114.0806870242473</v>
       </c>
       <c r="K13" t="n">
-        <v>55.72441237159521</v>
+        <v>114.0806870242473</v>
       </c>
       <c r="L13" t="n">
-        <v>55.72441237159521</v>
+        <v>114.0806870242473</v>
       </c>
       <c r="M13" t="n">
-        <v>123.4374680997844</v>
+        <v>114.0806870242473</v>
       </c>
       <c r="N13" t="n">
-        <v>123.4374680997844</v>
+        <v>114.0806870242473</v>
       </c>
       <c r="O13" t="n">
-        <v>191.1505238279736</v>
+        <v>114.0806870242473</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180218</v>
+        <v>141.022312848617</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180218</v>
+        <v>141.022312848617</v>
       </c>
       <c r="R13" t="n">
         <v>194.5252895180218</v>
@@ -5239,10 +5239,10 @@
         <v>13.54144478617197</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537548</v>
+        <v>5.773428652537551</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.32438883691626</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="C14" t="n">
-        <v>66.32438883691626</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="D14" t="n">
-        <v>66.32438883691626</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="E14" t="n">
-        <v>66.32438883691626</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="F14" t="n">
-        <v>66.32438883691626</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="G14" t="n">
-        <v>5.471762079045593</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="H14" t="n">
         <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="J14" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="K14" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="L14" t="n">
-        <v>93.85293350575502</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="M14" t="n">
-        <v>93.85293350575502</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="N14" t="n">
-        <v>93.85293350575502</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="O14" t="n">
-        <v>161.5659892339442</v>
+        <v>66.34484825077429</v>
       </c>
       <c r="P14" t="n">
-        <v>218.0509186971909</v>
+        <v>134.0579039789635</v>
       </c>
       <c r="Q14" t="n">
-        <v>218.0509186971909</v>
+        <v>183.3664277066109</v>
       </c>
       <c r="R14" t="n">
-        <v>253.9247756638204</v>
+        <v>251.0794834348001</v>
       </c>
       <c r="S14" t="n">
         <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811509</v>
       </c>
       <c r="U14" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594455</v>
       </c>
       <c r="V14" t="n">
-        <v>204.5001989138252</v>
+        <v>168.583838120991</v>
       </c>
       <c r="W14" t="n">
-        <v>204.5001989138252</v>
+        <v>168.583838120991</v>
       </c>
       <c r="X14" t="n">
-        <v>135.4122938753707</v>
+        <v>168.583838120991</v>
       </c>
       <c r="Y14" t="n">
-        <v>66.32438883691626</v>
+        <v>168.583838120991</v>
       </c>
     </row>
     <row r="15">
@@ -5364,34 +5364,34 @@
         <v>5.471762079045593</v>
       </c>
       <c r="M15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291717</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711517</v>
       </c>
       <c r="W15" t="n">
         <v>5.471762079045593</v>
@@ -5413,70 +5413,70 @@
         <v>5.471762079045593</v>
       </c>
       <c r="C16" t="n">
-        <v>5.471762079045593</v>
+        <v>56.07409839756632</v>
       </c>
       <c r="D16" t="n">
-        <v>5.471762079045593</v>
+        <v>56.07409839756632</v>
       </c>
       <c r="E16" t="n">
-        <v>5.471762079045593</v>
+        <v>123.7871541257555</v>
       </c>
       <c r="F16" t="n">
-        <v>5.471762079045593</v>
+        <v>123.7871541257555</v>
       </c>
       <c r="G16" t="n">
-        <v>5.471762079045593</v>
+        <v>123.7871541257555</v>
       </c>
       <c r="H16" t="n">
-        <v>5.471762079045593</v>
+        <v>123.7871541257555</v>
       </c>
       <c r="I16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="J16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="K16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="L16" t="n">
-        <v>126.8122337898326</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="M16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="N16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="O16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.525289518022</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751571</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297648</v>
+        <v>184.976017829765</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693359</v>
+        <v>116.701929669336</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395422</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617203</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537551</v>
+        <v>5.77342865253758</v>
       </c>
       <c r="Y16" t="n">
         <v>5.471762079045593</v>
@@ -5492,7 +5492,7 @@
         <v>183.0075687278994</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3863781436691</v>
+        <v>166.386378143669</v>
       </c>
       <c r="D17" t="n">
         <v>160.2504026345339</v>
@@ -5501,10 +5501,10 @@
         <v>127.3333129832886</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673682</v>
+        <v>69.99619532673677</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H17" t="n">
         <v>22.25055491761735</v>
@@ -5513,13 +5513,13 @@
         <v>22.25055491761735</v>
       </c>
       <c r="J17" t="n">
-        <v>89.96361064580658</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="K17" t="n">
-        <v>157.6766663739958</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="L17" t="n">
-        <v>157.6766663739958</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="M17" t="n">
         <v>157.6766663739958</v>
@@ -5534,16 +5534,16 @@
         <v>157.6766663739958</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.8750482240905</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="R17" t="n">
-        <v>205.8750482240905</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8750482240905</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="T17" t="n">
-        <v>273.5881039522797</v>
+        <v>225.389722102185</v>
       </c>
       <c r="U17" t="n">
         <v>273.5881039522797</v>
@@ -5555,10 +5555,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152951</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y19" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278996</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436692</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345341</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E20" t="n">
         <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G20" t="n">
         <v>5.471762079045594</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I20" t="n">
-        <v>89.96361064580658</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J20" t="n">
+        <v>5.471762079045594</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.471762079045594</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.471762079045594</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.471762079045594</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.471762079045594</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.471762079045594</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.471762079045594</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5.471762079045594</v>
+      </c>
+      <c r="R20" t="n">
+        <v>48.67201024445711</v>
+      </c>
+      <c r="S20" t="n">
         <v>116.3850659726463</v>
       </c>
-      <c r="K20" t="n">
+      <c r="T20" t="n">
         <v>184.0981217008356</v>
-      </c>
-      <c r="L20" t="n">
-        <v>184.0981217008356</v>
-      </c>
-      <c r="M20" t="n">
-        <v>251.8111774290248</v>
-      </c>
-      <c r="N20" t="n">
-        <v>251.8111774290248</v>
-      </c>
-      <c r="O20" t="n">
-        <v>251.8111774290248</v>
-      </c>
-      <c r="P20" t="n">
-        <v>251.8111774290248</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>251.8111774290248</v>
-      </c>
-      <c r="R20" t="n">
-        <v>251.8111774290248</v>
-      </c>
-      <c r="S20" t="n">
-        <v>251.8111774290248</v>
-      </c>
-      <c r="T20" t="n">
-        <v>251.8111774290248</v>
       </c>
       <c r="U20" t="n">
         <v>251.8111774290248</v>
@@ -5789,13 +5789,13 @@
         <v>273.5881039522797</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152953</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994557</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y21" t="n">
-        <v>273.5881039522797</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="22">
@@ -5966,19 +5966,19 @@
         <v>183.0075687278994</v>
       </c>
       <c r="C23" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D23" t="n">
         <v>160.2504026345339</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832885</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F23" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H23" t="n">
         <v>22.25055491761735</v>
@@ -5990,49 +5990,49 @@
         <v>22.25055491761735</v>
       </c>
       <c r="K23" t="n">
-        <v>89.96361064580655</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="L23" t="n">
-        <v>157.6766663739958</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="M23" t="n">
-        <v>157.6766663739958</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="N23" t="n">
-        <v>157.6766663739958</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="O23" t="n">
-        <v>157.6766663739958</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="P23" t="n">
-        <v>205.8750482240904</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.8750482240904</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="R23" t="n">
-        <v>205.8750482240904</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8750482240904</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8750482240904</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="U23" t="n">
-        <v>273.5881039522796</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V23" t="n">
-        <v>273.5881039522796</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W23" t="n">
-        <v>273.5881039522796</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X23" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994553</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923725</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847826</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522879</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776829</v>
       </c>
       <c r="F26" t="n">
-        <v>343.7160714977722</v>
+        <v>343.7160714977717</v>
       </c>
       <c r="G26" t="n">
         <v>148.3684072267213</v>
@@ -6230,22 +6230,22 @@
         <v>385.3421263187573</v>
       </c>
       <c r="L26" t="n">
-        <v>614.7477462626175</v>
+        <v>446.1674410542637</v>
       </c>
       <c r="M26" t="n">
-        <v>688.6476121943948</v>
+        <v>764.0814739657069</v>
       </c>
       <c r="N26" t="n">
-        <v>764.7012252649395</v>
+        <v>840.1350870362515</v>
       </c>
       <c r="O26" t="n">
-        <v>1008.975156514306</v>
+        <v>941.3135306130828</v>
       </c>
       <c r="P26" t="n">
-        <v>1399.323479295054</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q26" t="n">
-        <v>1669.770960790283</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R26" t="n">
         <v>1708.184261141055</v>
@@ -6263,7 +6263,7 @@
         <v>1593.893828310191</v>
       </c>
       <c r="W26" t="n">
-        <v>1463.070597286832</v>
+        <v>1463.070597286831</v>
       </c>
       <c r="X26" t="n">
         <v>1311.710515626487</v>
@@ -6282,49 +6282,49 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R27" t="n">
         <v>78.59820166294284</v>
@@ -6382,22 +6382,22 @@
         <v>34.66464650085356</v>
       </c>
       <c r="J28" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="K28" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="L28" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="M28" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="N28" t="n">
-        <v>34.66464650085356</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="O28" t="n">
-        <v>147.7853429745589</v>
+        <v>100.2436934660114</v>
       </c>
       <c r="P28" t="n">
         <v>210.0320876678294</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923736</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847836</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522886</v>
+        <v>695.616740852289</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776839</v>
       </c>
       <c r="F29" t="n">
-        <v>343.7160714977722</v>
+        <v>343.7160714977726</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,34 +6458,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034309</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J29" t="n">
-        <v>148.7795367731729</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="K29" t="n">
-        <v>211.2402513375901</v>
+        <v>385.3421263187573</v>
       </c>
       <c r="L29" t="n">
-        <v>605.0482199678655</v>
+        <v>446.1674410542637</v>
       </c>
       <c r="M29" t="n">
-        <v>605.0482199678655</v>
+        <v>870.3064988872844</v>
       </c>
       <c r="N29" t="n">
-        <v>605.0482199678655</v>
+        <v>870.3064988872844</v>
       </c>
       <c r="O29" t="n">
-        <v>1034.023220415928</v>
+        <v>941.3135306130823</v>
       </c>
       <c r="P29" t="n">
-        <v>1424.371543196677</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q29" t="n">
-        <v>1694.819024691905</v>
+        <v>1602.109334889059</v>
       </c>
       <c r="R29" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="C30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="D30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="E30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="F30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="G30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="H30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="I30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="J30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="K30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="L30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="M30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="N30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="O30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="T30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294276</v>
       </c>
       <c r="U30" t="n">
-        <v>74.93519318246766</v>
+        <v>74.9351931824676</v>
       </c>
       <c r="V30" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779437</v>
       </c>
       <c r="W30" t="n">
         <v>34.66464650085356</v>
@@ -6598,67 +6598,67 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>81.01386752393731</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D31" t="n">
-        <v>81.01386752393731</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E31" t="n">
-        <v>81.01386752393731</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F31" t="n">
-        <v>155.1214034327852</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G31" t="n">
-        <v>207.913497109478</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H31" t="n">
-        <v>207.913497109478</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I31" t="n">
-        <v>207.913497109478</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>207.913497109478</v>
+        <v>144.87312969628</v>
       </c>
       <c r="K31" t="n">
-        <v>207.913497109478</v>
+        <v>144.87312969628</v>
       </c>
       <c r="L31" t="n">
-        <v>207.913497109478</v>
+        <v>144.87312969628</v>
       </c>
       <c r="M31" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="N31" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="O31" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="P31" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="R31" t="n">
-        <v>207.913497109478</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="S31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678292</v>
       </c>
       <c r="T31" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935659</v>
       </c>
       <c r="U31" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042657</v>
       </c>
       <c r="V31" t="n">
         <v>105.5764649300127</v>
       </c>
       <c r="W31" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335923</v>
       </c>
       <c r="X31" t="n">
         <v>34.66464650085356</v>
@@ -6698,28 +6698,28 @@
         <v>67.29938996034306</v>
       </c>
       <c r="J32" t="n">
-        <v>148.7795367731728</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="K32" t="n">
-        <v>211.24025133759</v>
+        <v>129.7601045247602</v>
       </c>
       <c r="L32" t="n">
-        <v>272.0655660730964</v>
+        <v>558.735104972823</v>
       </c>
       <c r="M32" t="n">
-        <v>589.9795989845396</v>
+        <v>876.6491378842663</v>
       </c>
       <c r="N32" t="n">
-        <v>1018.954599432602</v>
+        <v>952.702750954811</v>
       </c>
       <c r="O32" t="n">
-        <v>1447.929599880665</v>
+        <v>1381.677751402874</v>
       </c>
       <c r="P32" t="n">
-        <v>1669.770960790283</v>
+        <v>1440.702124250264</v>
       </c>
       <c r="Q32" t="n">
-        <v>1669.770960790283</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.83517370100769</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C33" t="n">
-        <v>51.83517370100769</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="D33" t="n">
-        <v>51.83517370100769</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="E33" t="n">
-        <v>51.83517370100769</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="F33" t="n">
-        <v>51.83517370100769</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="G33" t="n">
         <v>78.59820166294293</v>
@@ -6822,7 +6822,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.83517370100769</v>
+        <v>34.66464650085356</v>
       </c>
     </row>
     <row r="34">
@@ -6862,25 +6862,25 @@
         <v>34.66464650085356</v>
       </c>
       <c r="L34" t="n">
-        <v>152.6825611895903</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M34" t="n">
-        <v>152.6825611895903</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N34" t="n">
-        <v>152.6825611895903</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O34" t="n">
-        <v>152.6825611895903</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P34" t="n">
-        <v>152.6825611895903</v>
+        <v>120.902628342086</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.6825611895903</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="R34" t="n">
-        <v>207.9134971094782</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="S34" t="n">
         <v>210.0320876678296</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154982</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303292</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G35" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379389</v>
       </c>
       <c r="J35" t="n">
-        <v>83.72603010379387</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K35" t="n">
-        <v>168.0851468907074</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="L35" t="n">
-        <v>250.8088638487102</v>
+        <v>700.8536633791116</v>
       </c>
       <c r="M35" t="n">
-        <v>612.0708085685837</v>
+        <v>796.6519315333852</v>
       </c>
       <c r="N35" t="n">
-        <v>710.0228238616248</v>
+        <v>796.6519315333852</v>
       </c>
       <c r="O35" t="n">
-        <v>802.928257809919</v>
+        <v>889.5573654816794</v>
       </c>
       <c r="P35" t="n">
-        <v>1164.190202529793</v>
+        <v>970.4801405515657</v>
       </c>
       <c r="Q35" t="n">
-        <v>1377.434116294633</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R35" t="n">
-        <v>1437.745818867902</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
         <v>1437.745818867902</v>
@@ -6974,13 +6974,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.49214658219</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767104</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D38" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303292</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F38" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398538</v>
       </c>
       <c r="G38" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379389</v>
       </c>
       <c r="J38" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K38" t="n">
         <v>271.4636959260336</v>
       </c>
       <c r="L38" t="n">
-        <v>354.1874128840363</v>
+        <v>354.1874128840364</v>
       </c>
       <c r="M38" t="n">
-        <v>595.957046663029</v>
+        <v>449.98568103831</v>
       </c>
       <c r="N38" t="n">
-        <v>957.2189913829027</v>
+        <v>547.937696331351</v>
       </c>
       <c r="O38" t="n">
-        <v>957.2189913829027</v>
+        <v>889.5573654816794</v>
       </c>
       <c r="P38" t="n">
-        <v>1038.141766452789</v>
+        <v>970.4801405515657</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.487650170514</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R38" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
         <v>1437.745818867902</v>
       </c>
       <c r="T38" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U38" t="n">
         <v>1451.252897529258</v>
@@ -7211,13 +7211,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W38" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821898</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="H39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="N39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="O39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N40" t="n">
-        <v>125.1988225531522</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O40" t="n">
-        <v>125.1988225531522</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P40" t="n">
-        <v>125.1988225531522</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.1988225531522</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R40" t="n">
-        <v>125.1988225531522</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U40" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V40" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="41">
@@ -7388,58 +7388,58 @@
         <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154982</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398545</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G41" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379389</v>
       </c>
       <c r="J41" t="n">
         <v>361.2064541202872</v>
       </c>
       <c r="K41" t="n">
-        <v>445.5655709072007</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="L41" t="n">
         <v>528.2892878652035</v>
       </c>
       <c r="M41" t="n">
-        <v>889.5512325850772</v>
+        <v>624.0875560194771</v>
       </c>
       <c r="N41" t="n">
-        <v>987.5032478781181</v>
+        <v>722.0395713125182</v>
       </c>
       <c r="O41" t="n">
-        <v>1221.365014512144</v>
+        <v>814.9450052608124</v>
       </c>
       <c r="P41" t="n">
-        <v>1278.639683058723</v>
+        <v>970.4801405515657</v>
       </c>
       <c r="Q41" t="n">
-        <v>1352.38605239301</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R41" t="n">
-        <v>1412.697754966279</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S41" t="n">
-        <v>1459.644221090399</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T41" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U41" t="n">
         <v>1451.252897529258</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821899</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="N43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767114</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585576</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154989</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303297</v>
+        <v>459.3755726303292</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398544</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G44" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379389</v>
       </c>
       <c r="J44" t="n">
-        <v>187.10457913912</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K44" t="n">
-        <v>271.4636959260336</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="L44" t="n">
-        <v>632.7256406459072</v>
+        <v>528.2892878652035</v>
       </c>
       <c r="M44" t="n">
-        <v>632.7256406459072</v>
+        <v>624.0875560194771</v>
       </c>
       <c r="N44" t="n">
-        <v>730.6776559389482</v>
+        <v>722.0395713125182</v>
       </c>
       <c r="O44" t="n">
-        <v>823.5830898872424</v>
+        <v>814.9450052608124</v>
       </c>
       <c r="P44" t="n">
-        <v>1098.453469026058</v>
+        <v>970.4801405515657</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.799352743783</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
         <v>1437.745818867902</v>
       </c>
       <c r="T44" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U44" t="n">
         <v>1451.252897529258</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336785</v>
+        <v>1364.991781336784</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802862</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X44" t="n">
-        <v>1127.494525631954</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821909</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180797</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="J46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="K46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="L46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="M46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="N46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
   </sheetData>
@@ -8696,19 +8696,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>86.66789572178861</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>161.3945396537014</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.83614047967461</v>
+        <v>6.19399534817714</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>138.7119396886106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>100.5187404447659</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>14.6044860288437</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>11.34154168176019</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>32.16080682985829</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9094,13 +9094,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>305.5879363161669</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>396.0321885132552</v>
+        <v>30.47617358690241</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9896,7 +9896,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>34.97226598772116</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M27" t="n">
         <v>78.19029710175252</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>104.1302923698531</v>
@@ -10045,13 +10045,13 @@
         <v>93.91583427681483</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>336.3461150452213</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>70.78685371726863</v>
+        <v>353.7769615164075</v>
       </c>
       <c r="N29" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O29" t="n">
-        <v>361.5838067901666</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>334.6706564983419</v>
@@ -10133,7 +10133,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>47.34253660377365</v>
+        <v>15.63653776251496</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,22 +10267,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>371.8683694066227</v>
       </c>
       <c r="M32" t="n">
         <v>467.4940748325458</v>
       </c>
       <c r="N32" t="n">
-        <v>356.486249876281</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>361.5838067901666</v>
       </c>
       <c r="P32" t="n">
-        <v>164.4616041032601</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>166.3606230933584</v>
+        <v>110.6659025525306</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>52.15381287013305</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10504,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>85.39970054035595</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>174.3074500140485</v>
       </c>
       <c r="M35" t="n">
-        <v>268.1451278440404</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>283.1708784343306</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>140.9066105359124</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>51.70472710140247</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10744,10 +10744,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>147.4458238633526</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>265.9696256836693</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>39.70567619192697</v>
+        <v>251.2265002040749</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175252</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>11.89015904939224</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,19 +10978,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>268.1451278440404</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>142.3801340259919</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>75.36602042511817</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175252</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>113.0519101575529</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>42.99303742525014</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,13 +11215,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11230,13 +11230,13 @@
         <v>93.91583427681483</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>281.351745214011</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>79.55631107763131</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>195.9066707766963</v>
+        <v>75.36602042511817</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>62.35248796903277</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11455,22 +11455,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.86936004331399</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
-        <v>123.8481684135451</v>
+        <v>148.5350717189314</v>
       </c>
       <c r="D11" t="n">
         <v>138.1547087945872</v>
@@ -23270,7 +23270,7 @@
         <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>195.9592819557577</v>
+        <v>171.2723786503699</v>
       </c>
       <c r="H11" t="n">
         <v>115.1318174460265</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>41.68617157443829</v>
+        <v>41.68617157443825</v>
       </c>
       <c r="W11" t="n">
-        <v>63.68306705247355</v>
+        <v>63.68306705247349</v>
       </c>
       <c r="X11" t="n">
-        <v>152.4115751711582</v>
+        <v>84.01454918308829</v>
       </c>
       <c r="Y11" t="n">
         <v>168.2370477912246</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.2663860313839</v>
+        <v>140.5794827259977</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5350717189314</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D14" t="n">
         <v>138.1547087945872</v>
@@ -23507,10 +23507,10 @@
         <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>135.7151814654657</v>
+        <v>127.5622559676878</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460265</v>
+        <v>46.73479145795659</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417441</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748827</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>41.68617157443825</v>
+        <v>41.68617157443828</v>
       </c>
       <c r="W14" t="n">
         <v>132.0800930405434</v>
       </c>
       <c r="X14" t="n">
-        <v>84.01454918308829</v>
+        <v>152.4115751711582</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.84002180315471</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1199419.321515793</v>
+        <v>1199419.321515794</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1199419.321515793</v>
+        <v>1199419.321515794</v>
       </c>
     </row>
     <row r="7">
@@ -26314,16 +26314,16 @@
         <v>40607.81888778701</v>
       </c>
       <c r="C2" t="n">
-        <v>40607.81888778702</v>
+        <v>40607.81888778706</v>
       </c>
       <c r="D2" t="n">
-        <v>40607.81888778703</v>
+        <v>40607.81888778704</v>
       </c>
       <c r="E2" t="n">
-        <v>34926.98809350467</v>
+        <v>34926.98809350466</v>
       </c>
       <c r="F2" t="n">
-        <v>34926.98809350467</v>
+        <v>34926.98809350465</v>
       </c>
       <c r="G2" t="n">
         <v>40695.97043074685</v>
@@ -26332,25 +26332,25 @@
         <v>40695.97043074685</v>
       </c>
       <c r="I2" t="n">
-        <v>40695.97043074686</v>
+        <v>40695.97043074685</v>
       </c>
       <c r="J2" t="n">
+        <v>40695.9704307468</v>
+      </c>
+      <c r="K2" t="n">
         <v>40695.97043074683</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>40695.9704307468</v>
       </c>
-      <c r="L2" t="n">
-        <v>40695.97043074679</v>
-      </c>
       <c r="M2" t="n">
-        <v>40695.97043074684</v>
+        <v>40695.97043074685</v>
       </c>
       <c r="N2" t="n">
         <v>40695.97043074684</v>
       </c>
       <c r="O2" t="n">
-        <v>40695.97043074683</v>
+        <v>40695.97043074686</v>
       </c>
       <c r="P2" t="n">
         <v>40695.97043074683</v>
@@ -26396,7 +26396,7 @@
         <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363344</v>
+        <v>17695.67856363346</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="G4" t="n">
         <v>426193.4292983838</v>
       </c>
       <c r="H4" t="n">
+        <v>426193.4292983837</v>
+      </c>
+      <c r="I4" t="n">
         <v>426193.4292983838</v>
-      </c>
-      <c r="I4" t="n">
-        <v>426193.4292983837</v>
       </c>
       <c r="J4" t="n">
         <v>434774.7393444278</v>
       </c>
       <c r="K4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="L4" t="n">
         <v>434774.7393444277</v>
@@ -26451,7 +26451,7 @@
         <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="O4" t="n">
         <v>431062.8369613773</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>24939.02968325745</v>
+      </c>
+      <c r="F5" t="n">
         <v>24939.02968325744</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24939.02968325745</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26503,13 +26503,13 @@
         <v>45042.30008022612</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-456571.9017479046</v>
+        <v>-456576.3093250526</v>
       </c>
       <c r="C6" t="n">
-        <v>-456571.9017479046</v>
+        <v>-456576.3093250525</v>
       </c>
       <c r="D6" t="n">
-        <v>-456571.9017479045</v>
+        <v>-456576.3093250525</v>
       </c>
       <c r="E6" t="n">
-        <v>-635676.1019091259</v>
+        <v>-635964.5510259881</v>
       </c>
       <c r="F6" t="n">
-        <v>-351470.7176051268</v>
+        <v>-351759.1667219889</v>
       </c>
       <c r="G6" t="n">
-        <v>-527204.4043251545</v>
+        <v>-527204.4043251546</v>
       </c>
       <c r="H6" t="n">
+        <v>-421540.3298927197</v>
+      </c>
+      <c r="I6" t="n">
         <v>-421540.3298927198</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-421540.3298927197</v>
       </c>
       <c r="J6" t="n">
         <v>-608044.8440157764</v>
       </c>
       <c r="K6" t="n">
-        <v>-441420.0356725241</v>
+        <v>-441420.035672524</v>
       </c>
       <c r="L6" t="n">
         <v>-547084.1101049588</v>
@@ -26555,13 +26555,13 @@
         <v>-453104.84517449</v>
       </c>
       <c r="N6" t="n">
-        <v>-435409.1666108566</v>
+        <v>-435409.1666108565</v>
       </c>
       <c r="O6" t="n">
-        <v>-506557.1868083648</v>
+        <v>-506557.1868083647</v>
       </c>
       <c r="P6" t="n">
-        <v>-435409.1666108566</v>
+        <v>-435409.1666108565</v>
       </c>
     </row>
   </sheetData>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F4" t="n">
         <v>68.39702598806991</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H4" t="n">
         <v>68.39702598806993</v>
       </c>
       <c r="I4" t="n">
-        <v>68.3970259880699</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="J4" t="n">
         <v>433.3080812606695</v>
@@ -26820,16 +26820,16 @@
         <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>22.1195982045418</v>
+        <v>22.11959820454183</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,31 +28111,31 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886106</v>
+        <v>207.1089656766806</v>
       </c>
       <c r="K11" t="n">
+        <v>157.9234874142799</v>
+      </c>
+      <c r="L11" t="n">
+        <v>159.5754064333817</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>57.52539118125145</v>
+      </c>
+      <c r="O11" t="n">
+        <v>149.2908438169257</v>
+      </c>
+      <c r="P11" t="n">
         <v>218.4500239600112</v>
       </c>
-      <c r="L11" t="n">
+      <c r="Q11" t="n">
         <v>218.4500239600112</v>
       </c>
-      <c r="M11" t="n">
-        <v>146.3687890634112</v>
-      </c>
-      <c r="N11" t="n">
-        <v>174.084421267264</v>
-      </c>
-      <c r="O11" t="n">
-        <v>217.6878698049956</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>90.8072938564503</v>
-      </c>
       <c r="R11" t="n">
-        <v>182.2138048017995</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S11" t="n">
         <v>218.4500239600112</v>
@@ -28199,16 +28199,16 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M12" t="n">
-        <v>130.4191539456671</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955188</v>
+        <v>118.2982863334665</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P12" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
@@ -28248,7 +28248,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -28260,10 +28260,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
+        <v>167.689771139254</v>
+      </c>
+      <c r="H13" t="n">
         <v>218.4500239600112</v>
-      </c>
-      <c r="H13" t="n">
-        <v>159.857510195687</v>
       </c>
       <c r="I13" t="n">
         <v>147.7494808688102</v>
@@ -28278,22 +28278,22 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
         <v>93.91583427681483</v>
       </c>
       <c r="O13" t="n">
-        <v>175.1488145040789</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P13" t="n">
-        <v>113.5266046391763</v>
+        <v>137.3315138657636</v>
       </c>
       <c r="Q13" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S13" t="n">
         <v>218.4500239600112</v>
@@ -28348,34 +28348,34 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K14" t="n">
         <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>218.4500239600112</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M14" t="n">
-        <v>45.8500486186453</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N14" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O14" t="n">
-        <v>217.6878698049956</v>
+        <v>165.7750306127108</v>
       </c>
       <c r="P14" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="Q14" t="n">
-        <v>168.6434343361249</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="R14" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="S14" t="n">
-        <v>215.5759914054451</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T14" t="n">
         <v>218.4500239600112</v>
@@ -28436,25 +28436,25 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M15" t="n">
-        <v>130.4191539456671</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P15" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>127.2394152081628</v>
       </c>
       <c r="S15" t="n">
-        <v>164.5345187941275</v>
+        <v>216.7633756380421</v>
       </c>
       <c r="T15" t="n">
         <v>197.4218470422748</v>
@@ -28485,13 +28485,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>215.3716501612691</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
@@ -28503,34 +28503,34 @@
         <v>159.857510195687</v>
       </c>
       <c r="I16" t="n">
-        <v>216.1465068568801</v>
+        <v>165.158732104024</v>
       </c>
       <c r="J16" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>155.9742105034498</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R16" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S16" t="n">
         <v>218.4500239600112</v>
@@ -28585,19 +28585,19 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
-        <v>207.1089656766806</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
-        <v>226.3205134023498</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333817</v>
+        <v>227.9724324214517</v>
       </c>
       <c r="M17" t="n">
-        <v>146.3687890634112</v>
+        <v>214.7658150514811</v>
       </c>
       <c r="N17" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O17" t="n">
         <v>149.2908438169257</v>
@@ -28606,7 +28606,7 @@
         <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.3286685281397</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
         <v>182.2138048017995</v>
@@ -28615,10 +28615,10 @@
         <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
-        <v>289.4121442754985</v>
+        <v>289.4121442754986</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4421268174995</v>
+        <v>300.1273610095143</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -28676,13 +28676,13 @@
         <v>78.19029710175252</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P18" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
@@ -28816,25 +28816,25 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
-        <v>256.4477569426808</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J20" t="n">
-        <v>165.4002784025902</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
-        <v>226.3205134023499</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L20" t="n">
         <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>214.7658150514811</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N20" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O20" t="n">
         <v>149.2908438169257</v>
@@ -28846,16 +28846,16 @@
         <v>168.6434343361249</v>
       </c>
       <c r="R20" t="n">
-        <v>182.2138048017995</v>
+        <v>225.850419110296</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273947</v>
       </c>
       <c r="T20" t="n">
-        <v>221.0151182874286</v>
+        <v>289.4121442754985</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V20" t="n">
         <v>350.5301170005546</v>
@@ -28913,13 +28913,13 @@
         <v>78.19029710175252</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P21" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
@@ -29062,22 +29062,22 @@
         <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
-        <v>226.3205134023498</v>
+        <v>226.3205134023499</v>
       </c>
       <c r="L23" t="n">
-        <v>227.9724324214516</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M23" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N23" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O23" t="n">
         <v>149.2908438169257</v>
       </c>
       <c r="P23" t="n">
-        <v>210.0797738457162</v>
+        <v>188.082878367681</v>
       </c>
       <c r="Q23" t="n">
         <v>168.6434343361249</v>
@@ -29089,13 +29089,13 @@
         <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>221.0151182874286</v>
+        <v>289.4121442754985</v>
       </c>
       <c r="U23" t="n">
         <v>319.8391528055694</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -29150,13 +29150,13 @@
         <v>78.19029710175252</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P24" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
@@ -29302,16 +29302,16 @@
         <v>221.0151182874286</v>
       </c>
       <c r="L26" t="n">
-        <v>85.71031854535651</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="M26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P26" t="n">
         <v>221.0151182874286</v>
@@ -29354,7 +29354,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>215.4029123739558</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -29375,31 +29375,31 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>66.17634308260099</v>
       </c>
       <c r="K27" t="n">
         <v>95.90842290065689</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P27" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>127.2394152081628</v>
+        <v>171.6167436547176</v>
       </c>
       <c r="S27" t="n">
         <v>164.5345187941275</v>
@@ -29454,13 +29454,13 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>74.71172711439591</v>
+        <v>175.9348796709957</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29469,13 +29469,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="P28" t="n">
-        <v>172.9932500969766</v>
-      </c>
       <c r="Q28" t="n">
-        <v>63.02868467987658</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
@@ -29542,7 +29542,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M29" t="n">
-        <v>75.58193534614256</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>209.7494540568996</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -29609,34 +29609,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985649</v>
+        <v>78.29747578532816</v>
       </c>
       <c r="J30" t="n">
-        <v>145.525937516877</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175252</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725115</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
-        <v>79.89687860438912</v>
+        <v>111.6028774456478</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29670,7 +29670,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>214.1539479040142</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29679,10 +29679,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>221.0151182874286</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>221.0151182874286</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H31" t="n">
         <v>159.857510195687</v>
@@ -29691,22 +29691,22 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
-        <v>74.71172711439591</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>169.9474216340442</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P31" t="n">
         <v>110.1177504068044</v>
@@ -29718,7 +29718,7 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S31" t="n">
-        <v>221.0151182874286</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T31" t="n">
         <v>221.0151182874286</v>
@@ -29770,7 +29770,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>221.0151182874286</v>
@@ -29791,7 +29791,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.282811242766482</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
         <v>221.0151182874286</v>
@@ -29828,7 +29828,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>215.4029123739559</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -29840,19 +29840,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>162.8182299444015</v>
+        <v>135.7848683666891</v>
       </c>
       <c r="H33" t="n">
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>78.29747578532816</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J33" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065689</v>
+        <v>43.75461003052384</v>
       </c>
       <c r="L33" t="n">
         <v>83.34002595346595</v>
@@ -29864,10 +29864,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P33" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>106.0581031398714</v>
@@ -29894,7 +29894,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>221.0151182874286</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -29928,34 +29928,34 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>221.0151182874286</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O34" t="n">
         <v>106.7517885160091</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>197.2268229737058</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.9853613927381</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R34" t="n">
-        <v>220.1954373443375</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S34" t="n">
-        <v>221.0151182874286</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T34" t="n">
         <v>221.0151182874286</v>
@@ -30007,7 +30007,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J35" t="n">
-        <v>53.3122391482547</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K35" t="n">
         <v>243.1347164919704</v>
@@ -30019,7 +30019,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N35" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>243.1347164919704</v>
@@ -30034,7 +30034,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="S35" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T35" t="n">
         <v>243.1347164919704</v>
@@ -30083,7 +30083,7 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>95.82205983753801</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J36" t="n">
         <v>101.1486090703222</v>
@@ -30098,19 +30098,19 @@
         <v>78.19029710175252</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P36" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0581031398714</v>
+        <v>54.35337603846894</v>
       </c>
       <c r="R36" t="n">
-        <v>127.2394152081628</v>
+        <v>134.2332222258443</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30168,10 +30168,10 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>104.1302923698531</v>
@@ -30183,7 +30183,7 @@
         <v>204.3603485785326</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q37" t="n">
         <v>130.9853613927381</v>
@@ -30259,7 +30259,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O38" t="n">
-        <v>109.5851676249987</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P38" t="n">
         <v>243.1347164919704</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>172.3659326280263</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -30323,31 +30323,31 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N39" t="n">
-        <v>73.0632365072334</v>
+        <v>54.17927044015965</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725115</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>79.89687860438912</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30390,7 +30390,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>243.1347164919704</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>167.689771139254</v>
@@ -30402,22 +30402,22 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J40" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681483</v>
       </c>
       <c r="O40" t="n">
-        <v>106.7517885160091</v>
+        <v>204.3603485785326</v>
       </c>
       <c r="P40" t="n">
         <v>110.1177504068044</v>
@@ -30429,7 +30429,7 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S40" t="n">
-        <v>219.5079928048051</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T40" t="n">
         <v>227.4786990669493</v>
@@ -30499,7 +30499,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="P41" t="n">
-        <v>219.2477402058012</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Q41" t="n">
         <v>243.1347164919704</v>
@@ -30511,7 +30511,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="T41" t="n">
-        <v>221.0151182874286</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U41" t="n">
         <v>243.1347164919704</v>
@@ -30557,7 +30557,7 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985649</v>
+        <v>78.29747578532816</v>
       </c>
       <c r="J42" t="n">
         <v>101.1486090703222</v>
@@ -30569,28 +30569,28 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>78.19029710175252</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>66.06942948955189</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>127.2394152081628</v>
+        <v>84.24637778291262</v>
       </c>
       <c r="S42" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T42" t="n">
-        <v>204.4156540599563</v>
+        <v>197.4218470422748</v>
       </c>
       <c r="U42" t="n">
         <v>224.641496683099</v>
@@ -30639,28 +30639,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>201.7388524323766</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>204.3603485785326</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.02868467987658</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R43" t="n">
         <v>164.4066131828346</v>
@@ -30727,7 +30727,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M44" t="n">
-        <v>66.81247798577989</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N44" t="n">
         <v>243.1347164919704</v>
@@ -30742,7 +30742,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R44" t="n">
-        <v>182.2138048017995</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S44" t="n">
         <v>243.1347164919704</v>
@@ -30797,31 +30797,31 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>95.90842290065689</v>
       </c>
       <c r="L45" t="n">
-        <v>90.33383297114747</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M45" t="n">
         <v>78.19029710175252</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725115</v>
+        <v>19.97126393821838</v>
       </c>
       <c r="P45" t="n">
-        <v>85.1122096929098</v>
+        <v>85.11220969290981</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081628</v>
+        <v>134.2332222258443</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30858,10 +30858,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>150.4540342582716</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -30876,25 +30876,25 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>207.3019781525518</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
         <v>130.9853613927381</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I11" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J11" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L11" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S11" t="n">
         <v>10.15090808421452</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I12" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J12" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L12" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q12" t="n">
         <v>30.42412659399958</v>
@@ -31868,10 +31868,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,10 +31911,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J13" t="n">
         <v>14.12711781338303</v>
@@ -31926,10 +31926,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O13" t="n">
         <v>28.24333647453766</v>
@@ -31941,16 +31941,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S13" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I14" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J14" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L14" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S14" t="n">
         <v>10.15090808421452</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I15" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J15" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L15" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q15" t="n">
         <v>30.42412659399958</v>
@@ -32105,10 +32105,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,10 +32148,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J16" t="n">
         <v>14.12711781338303</v>
@@ -32163,10 +32163,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O16" t="n">
         <v>28.24333647453766</v>
@@ -32178,16 +32178,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S16" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I17" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J17" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L17" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S17" t="n">
         <v>10.15090808421452</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I18" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J18" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L18" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q18" t="n">
         <v>30.42412659399958</v>
@@ -32342,10 +32342,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,10 +32385,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J19" t="n">
         <v>14.12711781338303</v>
@@ -32400,10 +32400,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O19" t="n">
         <v>28.24333647453766</v>
@@ -32415,16 +32415,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S19" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I20" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J20" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L20" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S20" t="n">
         <v>10.15090808421452</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I21" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J21" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L21" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q21" t="n">
         <v>30.42412659399958</v>
@@ -32579,10 +32579,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,10 +32622,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J22" t="n">
         <v>14.12711781338303</v>
@@ -32637,10 +32637,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O22" t="n">
         <v>28.24333647453766</v>
@@ -32652,16 +32652,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S22" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I23" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J23" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L23" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S23" t="n">
         <v>10.15090808421452</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I24" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J24" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L24" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q24" t="n">
         <v>30.42412659399958</v>
@@ -32816,10 +32816,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,10 +32859,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J25" t="n">
         <v>14.12711781338303</v>
@@ -32874,10 +32874,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O25" t="n">
         <v>28.24333647453766</v>
@@ -32889,16 +32889,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S25" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I26" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J26" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L26" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S26" t="n">
         <v>10.15090808421452</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I27" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J27" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L27" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q27" t="n">
         <v>30.42412659399958</v>
@@ -33053,10 +33053,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,10 +33096,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J28" t="n">
         <v>14.12711781338303</v>
@@ -33111,10 +33111,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O28" t="n">
         <v>28.24333647453766</v>
@@ -33126,16 +33126,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S28" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I29" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J29" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L29" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S29" t="n">
         <v>10.15090808421452</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I30" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J30" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L30" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q30" t="n">
         <v>30.42412659399958</v>
@@ -33290,10 +33290,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,10 +33333,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J31" t="n">
         <v>14.12711781338303</v>
@@ -33348,10 +33348,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O31" t="n">
         <v>28.24333647453766</v>
@@ -33363,16 +33363,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S31" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I32" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J32" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L32" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S32" t="n">
         <v>10.15090808421452</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I33" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J33" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L33" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q33" t="n">
         <v>30.42412659399958</v>
@@ -33527,10 +33527,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,10 +33570,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J34" t="n">
         <v>14.12711781338303</v>
@@ -33585,10 +33585,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O34" t="n">
         <v>28.24333647453766</v>
@@ -33600,16 +33600,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S34" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I35" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J35" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L35" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S35" t="n">
         <v>10.15090808421452</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I36" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J36" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L36" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q36" t="n">
         <v>30.42412659399958</v>
@@ -33764,10 +33764,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,10 +33807,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J37" t="n">
         <v>14.12711781338303</v>
@@ -33822,10 +33822,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O37" t="n">
         <v>28.24333647453766</v>
@@ -33837,16 +33837,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S37" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I38" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J38" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L38" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S38" t="n">
         <v>10.15090808421452</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I39" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J39" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L39" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q39" t="n">
         <v>30.42412659399958</v>
@@ -34001,10 +34001,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,10 +34044,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J40" t="n">
         <v>14.12711781338303</v>
@@ -34059,10 +34059,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O40" t="n">
         <v>28.24333647453766</v>
@@ -34074,16 +34074,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S40" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I41" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J41" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L41" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S41" t="n">
         <v>10.15090808421452</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I42" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J42" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L42" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q42" t="n">
         <v>30.42412659399958</v>
@@ -34238,10 +34238,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,10 +34281,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J43" t="n">
         <v>14.12711781338303</v>
@@ -34296,10 +34296,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O43" t="n">
         <v>28.24333647453766</v>
@@ -34311,16 +34311,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S43" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I44" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J44" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490849</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457611</v>
+        <v>56.6641173545761</v>
       </c>
       <c r="L44" t="n">
         <v>70.29684816235581</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317972</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363609</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146333</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697929</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S44" t="n">
         <v>10.15090808421452</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532128</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I45" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J45" t="n">
         <v>22.51807692967788</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934313</v>
       </c>
       <c r="L45" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191139</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221534</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169808</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608215</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606219</v>
+        <v>45.51283753606218</v>
       </c>
       <c r="Q45" t="n">
         <v>30.42412659399958</v>
@@ -34475,10 +34475,10 @@
         <v>4.427095111516909</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938703</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,10 +34518,10 @@
         <v>0.1998177908540739</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229859</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593425</v>
       </c>
       <c r="J46" t="n">
         <v>14.12711781338303</v>
@@ -34533,10 +34533,10 @@
         <v>29.7074559238866</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906179</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O46" t="n">
         <v>28.24333647453766</v>
@@ -34548,16 +34548,16 @@
         <v>16.73201519597159</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947721</v>
       </c>
       <c r="S46" t="n">
         <v>3.482279136975087</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583156</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>30.39929300540029</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K11" t="n">
-        <v>60.52653654573125</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>58.87461752662944</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>29.89113436422398</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>57.05548430630975</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>56.0005849720634</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>36.23621915821165</v>
       </c>
       <c r="S11" t="n">
         <v>22.73598032068647</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>52.22885684391455</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>51.11347102880885</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35556,10 +35556,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.7602528207572</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>58.59251376432421</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35574,22 +35574,22 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.408854232371984</v>
+        <v>27.21376345895927</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.0434107771766</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39929300540029</v>
+        <v>30.39929300540026</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>58.87461752662944</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,19 +35659,19 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>31.08867282462873</v>
+      </c>
+      <c r="P14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="P14" t="n">
-        <v>57.05548430630976</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>49.80658962388623</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821165</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="S14" t="n">
-        <v>19.86194776612042</v>
+        <v>22.73598032068644</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>52.22885684391465</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.11347102880882</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35799,7 +35799,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>68.39702598806991</v>
+        <v>17.40925123521385</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>54.16910705312909</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.04341077717658</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,22 +35875,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.94827559451693</v>
+        <v>16.94827559451692</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.6852341920148</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>48.68523419201482</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36112,46 +36112,46 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451693</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>43.63661430849648</v>
+      </c>
+      <c r="S20" t="n">
         <v>68.39702598806993</v>
       </c>
-      <c r="J20" t="n">
-        <v>26.68833871397956</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="T20" t="n">
         <v>68.39702598806993</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="U20" t="n">
         <v>68.39702598806993</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>21.99689547803524</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.94827559451693</v>
+        <v>16.94827559451692</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>68.3970259880699</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="L23" t="n">
-        <v>68.3970259880699</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>48.68523419201477</v>
+        <v>26.68833871397956</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="U23" t="n">
-        <v>68.3970259880699</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>63.09163087314867</v>
       </c>
       <c r="L26" t="n">
-        <v>231.7228484281417</v>
+        <v>61.43971185404686</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401742</v>
+        <v>321.1252857691346</v>
       </c>
       <c r="N26" t="n">
-        <v>76.82183138438856</v>
+        <v>76.82183138438855</v>
       </c>
       <c r="O26" t="n">
-        <v>246.7413446963295</v>
+        <v>102.2004480574053</v>
       </c>
       <c r="P26" t="n">
         <v>394.2912351320691</v>
@@ -36616,10 +36616,10 @@
         <v>273.1792742376045</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562908</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
-        <v>25.3010746481039</v>
+        <v>25.30107464810389</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36650,52 +36650,52 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>66.24146158096751</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36765,10 +36765,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>114.2633297714195</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>62.87549969017219</v>
+        <v>110.8973678806242</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281772</v>
+        <v>32.96438733281775</v>
       </c>
       <c r="J29" t="n">
-        <v>82.30317859881796</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K29" t="n">
-        <v>63.09163087314867</v>
+        <v>63.0916308731487</v>
       </c>
       <c r="L29" t="n">
-        <v>397.7858268992682</v>
+        <v>61.43971185404689</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>428.4232907404249</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>433.3080812606695</v>
+        <v>71.72427447050291</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2912351320691</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.1792742376045</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R29" t="n">
-        <v>38.80131348562908</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.30107464810392</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36884,7 +36884,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>44.37732844655475</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.81739497281187</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36975,10 +36975,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.85609687762411</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.32534714817462</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>111.3217001974005</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>65.81712926419114</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37014,7 +37014,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.139990462981167</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37066,34 +37066,34 @@
         <v>32.96438733281769</v>
       </c>
       <c r="J32" t="n">
-        <v>82.30317859881794</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>63.09163087314865</v>
+        <v>63.09163087314864</v>
       </c>
       <c r="L32" t="n">
-        <v>61.43971185404683</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M32" t="n">
         <v>321.1252857691346</v>
       </c>
       <c r="N32" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438852</v>
       </c>
       <c r="O32" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="P32" t="n">
-        <v>224.0821827369872</v>
+        <v>59.62057863372715</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>163.0375865038343</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562905</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810387</v>
+        <v>25.30107464810386</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -37136,7 +37136,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>27.03336157771236</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -37190,7 +37190,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.34396686884256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>119.2100148371079</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37242,16 +37242,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>87.10907256690145</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>90.02975689469048</v>
       </c>
       <c r="R34" t="n">
-        <v>55.78882416150294</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.139990462981139</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.0839855373595</v>
+        <v>55.08398553735952</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K35" t="n">
-        <v>85.21122907769045</v>
+        <v>85.21122907769046</v>
       </c>
       <c r="L35" t="n">
-        <v>83.55931005858864</v>
+        <v>257.8667600726372</v>
       </c>
       <c r="M35" t="n">
-        <v>364.9110552725996</v>
+        <v>96.76592742855921</v>
       </c>
       <c r="N35" t="n">
-        <v>98.94142958893033</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>93.84387267504466</v>
+        <v>93.84387267504468</v>
       </c>
       <c r="P35" t="n">
-        <v>364.9110552725996</v>
+        <v>81.74017683826898</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.3978926917578</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R35" t="n">
-        <v>60.92091169017085</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>47.42067285264569</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.993807017681523</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>97.60856006252358</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.0839855373595</v>
+        <v>55.08398553735952</v>
       </c>
       <c r="J38" t="n">
-        <v>104.4227768033597</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769045</v>
+        <v>85.21122907769046</v>
       </c>
       <c r="L38" t="n">
-        <v>83.55931005858864</v>
+        <v>83.55931005858866</v>
       </c>
       <c r="M38" t="n">
-        <v>244.2117512919118</v>
+        <v>96.76592742855921</v>
       </c>
       <c r="N38" t="n">
-        <v>364.9110552725996</v>
+        <v>98.94142958893035</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>345.0703728791196</v>
       </c>
       <c r="P38" t="n">
-        <v>81.74017683826897</v>
+        <v>81.74017683826898</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.2988724421463</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017085</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264569</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>96.97569508216588</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6328649803576941</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.0839855373595</v>
+        <v>55.08398553735952</v>
       </c>
       <c r="J41" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
-        <v>85.21122907769045</v>
+        <v>85.21122907769046</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858864</v>
+        <v>83.55931005858866</v>
       </c>
       <c r="M41" t="n">
-        <v>364.9110552725996</v>
+        <v>96.76592742855921</v>
       </c>
       <c r="N41" t="n">
-        <v>98.94142958893033</v>
+        <v>98.94142958893035</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2240067010366</v>
+        <v>93.84387267504468</v>
       </c>
       <c r="P41" t="n">
-        <v>57.85320055209981</v>
+        <v>157.1061972633871</v>
       </c>
       <c r="Q41" t="n">
-        <v>74.49128215584547</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017085</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264569</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.0839855373595</v>
+        <v>55.08398553735952</v>
       </c>
       <c r="J44" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K44" t="n">
-        <v>85.21122907769045</v>
+        <v>85.21122907769046</v>
       </c>
       <c r="L44" t="n">
-        <v>364.9110552725996</v>
+        <v>83.55931005858866</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>96.76592742855921</v>
       </c>
       <c r="N44" t="n">
-        <v>98.94142958893033</v>
+        <v>98.94142958893035</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504466</v>
+        <v>93.84387267504468</v>
       </c>
       <c r="P44" t="n">
-        <v>277.6468476149652</v>
+        <v>157.1061972633871</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.2988724421463</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264569</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>94.12914997745105</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.479410085072451</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
